--- a/main/brain_spreadsheet.xlsx
+++ b/main/brain_spreadsheet.xlsx
@@ -20,7 +20,6 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -67,11 +66,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,15 +439,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="1">
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>board_layout</t>
@@ -483,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="1">
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>_________</t>
@@ -511,14 +509,80 @@
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="1"/>
-    <row r="4" ht="12.75" customHeight="1" s="1"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>____O___X</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>__OXO___X</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
